--- a/public/excelop/template/putinm.xlsx
+++ b/public/excelop/template/putinm.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8265"/>
+    <workbookView windowWidth="19770" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$J$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>&lt;%=_data_[0][0].date+"入库单"%&gt;</t>
   </si>
@@ -46,6 +46,9 @@
     <t>差价</t>
   </si>
   <si>
+    <t>材料类别</t>
+  </si>
+  <si>
     <t>是否要发票</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>&lt;%=rs1.difference%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.cname%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.hasInvoice%&gt;</t>
@@ -87,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -106,13 +112,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -240,6 +239,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -277,6 +283,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,18 +337,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,12 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,132 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,152 +631,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +797,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -847,6 +856,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1179,22 +1189,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="9" width="19.375" customWidth="1"/>
+    <col min="5" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,8 +1215,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:9">
+    <row r="2" ht="17.25" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1232,51 +1242,57 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="10:10">
-      <c r="J4" t="s">
-        <v>20</v>
+    <row r="4" spans="11:11">
+      <c r="K4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I3"/>
+  <autoFilter ref="B2:J3"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/excelop/template/putinm.xlsx
+++ b/public/excelop/template/putinm.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8190"/>
+    <workbookView windowWidth="19770" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>&lt;%=_data_[0][0].date+"入库单"%&gt;</t>
   </si>
@@ -49,9 +49,6 @@
     <t>材料类别</t>
   </si>
   <si>
-    <t>是否要发票</t>
-  </si>
-  <si>
     <t>&lt;%=rs1.date%&gt;</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>&lt;%=rs1.cname%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%=rs1.hasInvoice%&gt;</t>
   </si>
   <si>
     <t>&lt;%forRBegin rs1,i in _data_[1]%&gt;</t>
@@ -94,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -112,6 +106,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -239,13 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -283,18 +277,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,36 +355,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,91 +433,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,152 +625,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1189,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1200,10 +1191,10 @@
     <col min="1" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="10" width="19.375" customWidth="1"/>
+    <col min="5" max="9" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,9 +1206,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:10">
+    <row r="2" ht="17.25" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1242,57 +1232,51 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5" t="s">
+    <row r="4" spans="10:10">
+      <c r="J4" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="11:11">
-      <c r="K4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:J3"/>
+  <autoFilter ref="B2:I3"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/excelop/template/putinm.xlsx
+++ b/public/excelop/template/putinm.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8550"/>
+    <workbookView windowWidth="28695" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$J$3</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>&lt;%=_data_[0][0].date+"入库单"%&gt;</t>
   </si>
@@ -25,6 +25,9 @@
     <t>日期</t>
   </si>
   <si>
+    <t>门店</t>
+  </si>
+  <si>
     <t>材料名称</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>&lt;%=rs1.date%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.store%&gt;</t>
   </si>
   <si>
     <t>&lt;%=rs1.name%&gt;</t>
@@ -88,8 +94,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -107,6 +113,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,6 +129,132 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,139 +267,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -277,31 +283,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,151 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +548,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -562,6 +579,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -573,26 +599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,145 +634,145 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,21 +1186,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="9" width="19.375" customWidth="1"/>
+    <col min="1" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,8 +1212,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:9">
+    <row r="2" ht="17.25" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1220,10 +1227,10 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1232,51 +1239,57 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="10:10">
-      <c r="J4" t="s">
-        <v>20</v>
+    <row r="4" spans="11:11">
+      <c r="K4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I3"/>
+  <autoFilter ref="C2:J3"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/excelop/template/putinm.xlsx
+++ b/public/excelop/template/putinm.xlsx
@@ -10,16 +10,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$J$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>&lt;%=_data_[0][0].date+"入库单"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%="总金额"+_data_[0][0].totalout%&gt;</t>
   </si>
   <si>
     <t>日期</t>
@@ -93,8 +96,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -112,6 +115,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -119,6 +127,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -126,75 +165,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,46 +194,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +231,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -283,37 +286,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,145 +454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,32 +546,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,9 +591,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,148 +634,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,13 +1189,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
@@ -1214,80 +1217,94 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="17.25" spans="1:10">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="11:11">
-      <c r="K4" t="s">
-        <v>22</v>
+    <row r="5" spans="11:11">
+      <c r="K5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:J3"/>
+  <autoFilter ref="C3:J4"/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
